--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.05640000000000001</v>
+        <v>0.0115</v>
       </c>
       <c r="E2">
-        <v>0.06345000000000001</v>
+        <v>-0.005855</v>
       </c>
       <c r="F2">
-        <v>0.0922</v>
+        <v>0.1075</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001099934585031688</v>
+        <v>9.5013841516538e-05</v>
       </c>
       <c r="J2">
-        <v>0.001059358859246709</v>
+        <v>9.376957699403087e-05</v>
       </c>
       <c r="K2">
-        <v>12086.037</v>
+        <v>8170.92</v>
       </c>
       <c r="L2">
-        <v>0.6057253044654939</v>
+        <v>0.517641543500434</v>
       </c>
       <c r="M2">
-        <v>8725.16</v>
+        <v>6807.944</v>
       </c>
       <c r="N2">
-        <v>0.07870317585169255</v>
+        <v>0.07605630089407107</v>
       </c>
       <c r="O2">
-        <v>0.7219206759006281</v>
+        <v>0.833191855996632</v>
       </c>
       <c r="P2">
-        <v>5725.36</v>
+        <v>6308</v>
       </c>
       <c r="Q2">
-        <v>0.0516442122430129</v>
+        <v>0.0704710770299815</v>
       </c>
       <c r="R2">
-        <v>0.4737169015782427</v>
+        <v>0.7720060898895106</v>
       </c>
       <c r="S2">
-        <v>2999.8</v>
+        <v>499.944</v>
       </c>
       <c r="T2">
-        <v>0.3438103140802002</v>
+        <v>0.07343538666005477</v>
       </c>
       <c r="U2">
-        <v>74005.40000000001</v>
+        <v>106421.1</v>
       </c>
       <c r="V2">
-        <v>0.6675476449915931</v>
+        <v>1.188904492028434</v>
       </c>
       <c r="W2">
-        <v>0.1039648714968359</v>
+        <v>0.08160807841547948</v>
       </c>
       <c r="X2">
-        <v>0.05051139169431014</v>
+        <v>0.04728523414464973</v>
       </c>
       <c r="Y2">
-        <v>0.05345347980252571</v>
+        <v>0.03432284427082976</v>
       </c>
       <c r="Z2">
-        <v>0.221628822608016</v>
+        <v>0.1352279344386229</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03512335297350005</v>
+        <v>0.02751517861266661</v>
       </c>
       <c r="AC2">
-        <v>-0.03503956806286016</v>
+        <v>-0.02727483640123366</v>
       </c>
       <c r="AD2">
-        <v>106801.2</v>
+        <v>121394.61</v>
       </c>
       <c r="AE2">
-        <v>213.7150261243137</v>
+        <v>3.801080065227995</v>
       </c>
       <c r="AF2">
-        <v>107014.9150261243</v>
+        <v>121398.4110800652</v>
       </c>
       <c r="AG2">
-        <v>33009.51502612431</v>
+        <v>14977.31108006524</v>
       </c>
       <c r="AH2">
-        <v>0.4911723276521693</v>
+        <v>0.5755925846317693</v>
       </c>
       <c r="AI2">
-        <v>0.5296495993167165</v>
+        <v>0.5696147578551637</v>
       </c>
       <c r="AJ2">
-        <v>0.2294380982598932</v>
+        <v>0.1433383497229089</v>
       </c>
       <c r="AK2">
-        <v>0.2577999997843654</v>
+        <v>0.140364991338655</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1650.969237903849</v>
+        <v>53714.42920353982</v>
       </c>
       <c r="AP2">
-        <v>510.2722990589629</v>
+        <v>6627.128796489043</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +721,23 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.08449999999999999</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3">
-        <v>-0.363</v>
+        <v>-146.4</v>
       </c>
       <c r="L3">
-        <v>-0.003723076923076923</v>
+        <v>5.191489361702128</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1029.5</v>
+        <v>1401.3</v>
       </c>
       <c r="V3">
-        <v>2.182531269874921</v>
+        <v>3.890338700721821</v>
       </c>
       <c r="W3">
-        <v>-0.0003268797838811346</v>
+        <v>-0.1397079874033782</v>
       </c>
       <c r="X3">
-        <v>0.07370595312353653</v>
+        <v>0.09121680588484722</v>
       </c>
       <c r="Y3">
-        <v>-0.07403283290741766</v>
+        <v>-0.2309247932882254</v>
       </c>
       <c r="Z3">
-        <v>0.05884127942063971</v>
+        <v>-0.01919020074855393</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0290672745242251</v>
+        <v>0.02386865341005168</v>
       </c>
       <c r="AC3">
-        <v>-0.0290672745242251</v>
+        <v>-0.02386865341005168</v>
       </c>
       <c r="AD3">
-        <v>1451.1</v>
+        <v>1830.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1451.1</v>
+        <v>1830.1</v>
       </c>
       <c r="AG3">
-        <v>421.5999999999999</v>
+        <v>428.8</v>
       </c>
       <c r="AH3">
-        <v>0.7546806740170584</v>
+        <v>0.8355476418755422</v>
       </c>
       <c r="AI3">
-        <v>0.5798369695516663</v>
+        <v>0.6729298426239153</v>
       </c>
       <c r="AJ3">
-        <v>0.4719579088771969</v>
+        <v>0.5434727503168567</v>
       </c>
       <c r="AK3">
-        <v>0.2861991718145407</v>
+        <v>0.325267389820223</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mashreqbank PSC (DFM:MASQ)</t>
+          <t>Sharjah Islamic Bank PJSC (ADX:SIB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0139</v>
+        <v>0.0528</v>
       </c>
       <c r="E4">
-        <v>-0.0176</v>
+        <v>0.049</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,103 +847,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007894036241163133</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007845764347075184</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>563.5</v>
+        <v>131.6</v>
       </c>
       <c r="L4">
-        <v>0.4311400153022188</v>
+        <v>0.4646892655367232</v>
       </c>
       <c r="M4">
-        <v>382.1</v>
+        <v>64.944</v>
       </c>
       <c r="N4">
-        <v>0.1124518084699373</v>
+        <v>0.05864018058690745</v>
       </c>
       <c r="O4">
-        <v>0.678083407275954</v>
+        <v>0.4934954407294833</v>
       </c>
       <c r="P4">
-        <v>382.1</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.1124518084699373</v>
+        <v>0.05860045146726863</v>
       </c>
       <c r="R4">
-        <v>0.678083407275954</v>
+        <v>0.4931610942249241</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.04399999999999693</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0006775067750677034</v>
       </c>
       <c r="U4">
-        <v>7881.8</v>
+        <v>2087.1</v>
       </c>
       <c r="V4">
-        <v>2.319609170369934</v>
+        <v>1.88451467268623</v>
       </c>
       <c r="W4">
-        <v>0.1039648714968359</v>
+        <v>0.06454144188327611</v>
       </c>
       <c r="X4">
-        <v>0.06020348335264698</v>
+        <v>0.06815745318237369</v>
       </c>
       <c r="Y4">
-        <v>0.04376138814418887</v>
+        <v>-0.003616011299097582</v>
       </c>
       <c r="Z4">
-        <v>0.301885748394608</v>
+        <v>0.07995708518027048</v>
       </c>
       <c r="AA4">
-        <v>0.002368524441644525</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03198288665495274</v>
+        <v>0.02607103989533757</v>
       </c>
       <c r="AC4">
-        <v>-0.02961436221330822</v>
+        <v>-0.02607103989533757</v>
       </c>
       <c r="AD4">
-        <v>5966.1</v>
+        <v>3350.2</v>
       </c>
       <c r="AE4">
-        <v>26.91247316399891</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>5993.012473163999</v>
+        <v>3350.2</v>
       </c>
       <c r="AG4">
-        <v>-1888.787526836001</v>
+        <v>1263.1</v>
       </c>
       <c r="AH4">
-        <v>0.6381714759124814</v>
+        <v>0.751553491710972</v>
       </c>
       <c r="AI4">
-        <v>0.501141948735087</v>
+        <v>0.6168434231845632</v>
       </c>
       <c r="AJ4">
-        <v>-1.251588307978117</v>
+        <v>0.5328186956888551</v>
       </c>
       <c r="AK4">
-        <v>-0.4632887115602353</v>
+        <v>0.3777099967106247</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>380.0063694267516</v>
-      </c>
-      <c r="AP4">
-        <v>-120.3049380150319</v>
       </c>
     </row>
     <row r="5">
@@ -957,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sharjah Islamic Bank PJSC (ADX:SIB)</t>
+          <t>Emirates NBD Bank PJSC (DFM:EMIRATESNBD)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,10 +957,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.09359999999999999</v>
+        <v>0.09390000000000001</v>
       </c>
       <c r="E5">
-        <v>0.0675</v>
+        <v>0.0428</v>
+      </c>
+      <c r="F5">
+        <v>0.104</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -984,85 +978,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>143.8</v>
+        <v>2086.6</v>
       </c>
       <c r="L5">
-        <v>0.4570883661792753</v>
+        <v>0.4581403008014052</v>
       </c>
       <c r="M5">
-        <v>63.9</v>
+        <v>1362</v>
       </c>
       <c r="N5">
-        <v>0.06501831501831502</v>
+        <v>0.07689180949800149</v>
       </c>
       <c r="O5">
-        <v>0.4443671766342142</v>
+        <v>0.6527365091536471</v>
       </c>
       <c r="P5">
-        <v>63.9</v>
+        <v>862.1</v>
       </c>
       <c r="Q5">
-        <v>0.06501831501831502</v>
+        <v>0.04866991847887451</v>
       </c>
       <c r="R5">
-        <v>0.4443671766342142</v>
+        <v>0.4131601648614972</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>499.9</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.3670337738619677</v>
       </c>
       <c r="U5">
-        <v>1359</v>
+        <v>12724.3</v>
       </c>
       <c r="V5">
-        <v>1.382783882783883</v>
+        <v>0.7183512860465641</v>
       </c>
       <c r="W5">
-        <v>0.0989404155772671</v>
+        <v>0.1042710868359377</v>
       </c>
       <c r="X5">
-        <v>0.07201545864934177</v>
+        <v>0.05566781423711992</v>
       </c>
       <c r="Y5">
-        <v>0.02692495692792533</v>
+        <v>0.04860327259881778</v>
       </c>
       <c r="Z5">
-        <v>0.1021362249204597</v>
+        <v>0.1461794979603234</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03030587321161842</v>
+        <v>0.02608769342473581</v>
       </c>
       <c r="AC5">
-        <v>-0.03030587321161842</v>
+        <v>-0.02608769342473581</v>
       </c>
       <c r="AD5">
-        <v>2861.9</v>
+        <v>33859.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>2861.9</v>
+        <v>33859.5</v>
       </c>
       <c r="AG5">
-        <v>1502.9</v>
+        <v>21135.2</v>
       </c>
       <c r="AH5">
-        <v>0.744375373891331</v>
+        <v>0.6565392155151853</v>
       </c>
       <c r="AI5">
-        <v>0.5839539676385971</v>
+        <v>0.6005480569695465</v>
       </c>
       <c r="AJ5">
-        <v>0.6046184173472262</v>
+        <v>0.5440429979098238</v>
       </c>
       <c r="AK5">
-        <v>0.4243202800756656</v>
+        <v>0.4841227119777721</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1079,7 +1073,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Emirates NBD Bank PJSC (DFM:EMIRATESNBD)</t>
+          <t>Abu Dhabi Commercial Bank PJSC (ADX:ADCB)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,13 +1082,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.187</v>
+        <v>0.0279</v>
       </c>
       <c r="E6">
-        <v>0.265</v>
+        <v>-0.0416</v>
       </c>
       <c r="F6">
-        <v>0.116</v>
+        <v>0.183</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1103,103 +1097,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.0005568716249126001</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.0005508705891482022</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4047.7</v>
+        <v>1046.8</v>
       </c>
       <c r="L6">
-        <v>0.7068736684013831</v>
+        <v>0.4400908097200034</v>
       </c>
       <c r="M6">
-        <v>1784.2</v>
+        <v>795.2</v>
       </c>
       <c r="N6">
-        <v>0.07980712458177523</v>
+        <v>0.06777291980943129</v>
       </c>
       <c r="O6">
-        <v>0.4407935370704351</v>
+        <v>0.7596484524264425</v>
       </c>
       <c r="P6">
-        <v>784.3</v>
+        <v>795.2</v>
       </c>
       <c r="Q6">
-        <v>0.03508167683526865</v>
+        <v>0.06777291980943129</v>
       </c>
       <c r="R6">
-        <v>0.1937643600069175</v>
+        <v>0.7596484524264425</v>
       </c>
       <c r="S6">
-        <v>999.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.5604192355117139</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>15866.4</v>
+        <v>598.8</v>
       </c>
       <c r="V6">
-        <v>0.7097028144066128</v>
+        <v>0.05103423589271561</v>
       </c>
       <c r="W6">
-        <v>0.2397756083690733</v>
+        <v>0.07108901746665579</v>
       </c>
       <c r="X6">
-        <v>0.05522406533835877</v>
+        <v>0.05494195549803452</v>
       </c>
       <c r="Y6">
-        <v>0.1845515430307145</v>
+        <v>0.01614706196862127</v>
       </c>
       <c r="Z6">
-        <v>0.2077024688565071</v>
+        <v>0.08140342711645145</v>
       </c>
       <c r="AA6">
-        <v>-0.0001144171813865202</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0323957843974243</v>
+        <v>0.02673765861019223</v>
       </c>
       <c r="AC6">
-        <v>-0.03251020157881082</v>
+        <v>-0.02673765861019223</v>
       </c>
       <c r="AD6">
-        <v>28524.3</v>
+        <v>21669.4</v>
       </c>
       <c r="AE6">
-        <v>84.94379149287266</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>28609.24379149287</v>
+        <v>21669.4</v>
       </c>
       <c r="AG6">
-        <v>12742.84379149287</v>
+        <v>21070.6</v>
       </c>
       <c r="AH6">
-        <v>0.5613437143762382</v>
+        <v>0.64873198873145</v>
       </c>
       <c r="AI6">
-        <v>0.5883353423668533</v>
+        <v>0.5912572272078627</v>
       </c>
       <c r="AJ6">
-        <v>0.3630518043976035</v>
+        <v>0.6423199680525792</v>
       </c>
       <c r="AK6">
-        <v>0.3889633026528242</v>
+        <v>0.5844680715321948</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>2066.978260869565</v>
-      </c>
-      <c r="AP6">
-        <v>923.3944776444109</v>
       </c>
     </row>
     <row r="7">
@@ -1210,7 +1198,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abu Dhabi Commercial Bank PJSC (ADX:ADCB)</t>
+          <t>The National Bank of Ras Al-Khaimah (P.S.C.) (ADX:RAKBANK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1219,10 +1207,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0709</v>
+        <v>-0.0668</v>
       </c>
       <c r="E7">
-        <v>0.0594</v>
+        <v>-0.14</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1231,34 +1219,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001668651565491647</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.001664473352000784</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1388</v>
+        <v>188.4</v>
       </c>
       <c r="L7">
-        <v>0.5613524225511607</v>
+        <v>0.3261772853185596</v>
       </c>
       <c r="M7">
-        <v>723.2</v>
+        <v>136.9</v>
       </c>
       <c r="N7">
-        <v>0.04826964792257634</v>
+        <v>0.07691875491628274</v>
       </c>
       <c r="O7">
-        <v>0.5210374639769453</v>
+        <v>0.7266454352441614</v>
       </c>
       <c r="P7">
-        <v>723.2</v>
+        <v>136.9</v>
       </c>
       <c r="Q7">
-        <v>0.04826964792257634</v>
+        <v>0.07691875491628274</v>
       </c>
       <c r="R7">
-        <v>0.5210374639769453</v>
+        <v>0.7266454352441614</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1267,67 +1255,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>3545.5</v>
+        <v>1083.5</v>
       </c>
       <c r="V7">
-        <v>0.236642749874854</v>
+        <v>0.6087762669962917</v>
       </c>
       <c r="W7">
-        <v>0.1603178636605142</v>
+        <v>0.09212713936430318</v>
       </c>
       <c r="X7">
-        <v>0.05367999093161677</v>
+        <v>0.04941617407687274</v>
       </c>
       <c r="Y7">
-        <v>0.1066378727288975</v>
+        <v>0.04271096528743044</v>
       </c>
       <c r="Z7">
-        <v>0.1222283436536474</v>
+        <v>0.1376155532259602</v>
       </c>
       <c r="AA7">
-        <v>0.0002034458208706902</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03334912135060514</v>
+        <v>0.0270956664125543</v>
       </c>
       <c r="AC7">
-        <v>-0.03314567552973445</v>
+        <v>-0.0270956664125543</v>
       </c>
       <c r="AD7">
-        <v>16887.2</v>
+        <v>2410.2</v>
       </c>
       <c r="AE7">
-        <v>36.87046069582676</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>16924.07046069583</v>
+        <v>2410.2</v>
       </c>
       <c r="AG7">
-        <v>13378.57046069583</v>
+        <v>1326.7</v>
       </c>
       <c r="AH7">
-        <v>0.5304258720486358</v>
+        <v>0.5752267303102625</v>
       </c>
       <c r="AI7">
-        <v>0.5340327800440047</v>
+        <v>0.5346613722575922</v>
       </c>
       <c r="AJ7">
-        <v>0.4717230430084263</v>
+        <v>0.427072267825527</v>
       </c>
       <c r="AK7">
-        <v>0.4753348481381278</v>
+        <v>0.3874255344001869</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>1468.452173913043</v>
-      </c>
-      <c r="AP7">
-        <v>1163.353953103985</v>
       </c>
     </row>
     <row r="8">
@@ -1347,13 +1329,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.195</v>
+        <v>0.162</v>
       </c>
       <c r="E8">
-        <v>0.177</v>
+        <v>0.123</v>
       </c>
       <c r="F8">
-        <v>0.0922</v>
+        <v>0.0664</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,34 +1344,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001407718594132141</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001373980653892417</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3368.3</v>
+        <v>2833.1</v>
       </c>
       <c r="L8">
-        <v>0.6795722788257844</v>
+        <v>0.6523370941745337</v>
       </c>
       <c r="M8">
-        <v>2262.1</v>
+        <v>3064.5</v>
       </c>
       <c r="N8">
-        <v>0.05030824111304842</v>
+        <v>0.08004231311706629</v>
       </c>
       <c r="O8">
-        <v>0.6715850725885461</v>
+        <v>1.081677314602379</v>
       </c>
       <c r="P8">
-        <v>2262.1</v>
+        <v>3064.5</v>
       </c>
       <c r="Q8">
-        <v>0.05030824111304842</v>
+        <v>0.08004231311706629</v>
       </c>
       <c r="R8">
-        <v>0.6715850725885461</v>
+        <v>1.081677314602379</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1398,67 +1380,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>32935.3</v>
+        <v>74207.2</v>
       </c>
       <c r="V8">
-        <v>0.7324685087001388</v>
+        <v>1.938233296766442</v>
       </c>
       <c r="W8">
-        <v>0.1236055250565129</v>
+        <v>0.1003887134894565</v>
       </c>
       <c r="X8">
-        <v>0.05107277808726952</v>
+        <v>0.04814082595818114</v>
       </c>
       <c r="Y8">
-        <v>0.0725327469692434</v>
+        <v>0.05224788753127541</v>
       </c>
       <c r="Z8">
-        <v>0.3678917469178556</v>
+        <v>0.1452377210084708</v>
       </c>
       <c r="AA8">
-        <v>0.0005054761429918189</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03397814040828759</v>
+        <v>0.02726322140681264</v>
       </c>
       <c r="AC8">
-        <v>-0.03347266426529577</v>
+        <v>-0.02726322140681264</v>
       </c>
       <c r="AD8">
-        <v>39345.9</v>
+        <v>47493.7</v>
       </c>
       <c r="AE8">
-        <v>49.61321394092021</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>39395.51321394093</v>
+        <v>47493.7</v>
       </c>
       <c r="AG8">
-        <v>6460.213213940922</v>
+        <v>-26713.5</v>
       </c>
       <c r="AH8">
-        <v>0.4669910733265347</v>
+        <v>0.5536706237023444</v>
       </c>
       <c r="AI8">
-        <v>0.5816371488293143</v>
+        <v>0.6323101420024124</v>
       </c>
       <c r="AJ8">
-        <v>0.1256239485455224</v>
+        <v>-2.308360337005833</v>
       </c>
       <c r="AK8">
-        <v>0.1856553120029025</v>
+        <v>-29.54379562043793</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>2328.15976331361</v>
-      </c>
-      <c r="AP8">
-        <v>382.2611369195812</v>
       </c>
     </row>
     <row r="9">
@@ -1469,7 +1445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Commercial Bank International P.S.C. (ADX:CBI)</t>
+          <t>Commercial Bank of Dubai PSC (DFM:CBD)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1478,10 +1454,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.00413</v>
+        <v>-0.009250000000000001</v>
       </c>
       <c r="E9">
-        <v>-0.0312</v>
+        <v>-0.0125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1490,34 +1466,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01334069299428513</v>
+        <v>0.00276610842300701</v>
       </c>
       <c r="J9">
-        <v>0.01334069299428513</v>
+        <v>0.00276610842300701</v>
       </c>
       <c r="K9">
-        <v>42.8</v>
+        <v>313.8</v>
       </c>
       <c r="L9">
-        <v>0.2747111681643132</v>
+        <v>0.5787532275912947</v>
       </c>
       <c r="M9">
-        <v>4.06</v>
+        <v>157.9</v>
       </c>
       <c r="N9">
-        <v>0.008940761946707773</v>
+        <v>0.05251954099451189</v>
       </c>
       <c r="O9">
-        <v>0.09485981308411215</v>
+        <v>0.5031867431485022</v>
       </c>
       <c r="P9">
-        <v>4.06</v>
+        <v>157.9</v>
       </c>
       <c r="Q9">
-        <v>0.008940761946707773</v>
+        <v>0.05251954099451189</v>
       </c>
       <c r="R9">
-        <v>0.09485981308411215</v>
+        <v>0.5031867431485022</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1526,55 +1502,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>417.9</v>
+        <v>976.2</v>
       </c>
       <c r="V9">
-        <v>0.9202818762387138</v>
+        <v>0.3246964909363047</v>
       </c>
       <c r="W9">
-        <v>0.0671477878882962</v>
+        <v>0.1162179178548943</v>
       </c>
       <c r="X9">
-        <v>0.04241237281114205</v>
+        <v>0.04642964233111831</v>
       </c>
       <c r="Y9">
-        <v>0.02473541507715415</v>
+        <v>0.06978827552377596</v>
       </c>
       <c r="Z9">
-        <v>0.5134160420406729</v>
+        <v>0.1737764213679465</v>
       </c>
       <c r="AA9">
-        <v>0.006849325795205608</v>
+        <v>0.0004806844228658921</v>
       </c>
       <c r="AB9">
-        <v>0.04163573055720315</v>
+        <v>0.02776713581852058</v>
       </c>
       <c r="AC9">
-        <v>-0.03478640476199754</v>
+        <v>-0.02728645139565469</v>
       </c>
       <c r="AD9">
-        <v>7.3</v>
+        <v>3267.1</v>
       </c>
       <c r="AE9">
-        <v>8.257600157451879</v>
+        <v>3.801080065227995</v>
       </c>
       <c r="AF9">
-        <v>15.55760015745188</v>
+        <v>3270.901080065228</v>
       </c>
       <c r="AG9">
-        <v>-402.3423998425481</v>
+        <v>2294.701080065228</v>
       </c>
       <c r="AH9">
-        <v>0.0331254091326026</v>
+        <v>0.5210597567920959</v>
       </c>
       <c r="AI9">
-        <v>0.02253556729715674</v>
+        <v>0.5330151067975989</v>
       </c>
       <c r="AJ9">
-        <v>-7.773590711674833</v>
+        <v>0.4328643726974026</v>
       </c>
       <c r="AK9">
-        <v>-1.476715641663277</v>
+        <v>0.4446749476372528</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1583,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>1.957104557640751</v>
+        <v>1445.619469026549</v>
       </c>
       <c r="AP9">
-        <v>-107.8665951320504</v>
+        <v>1015.354460205853</v>
       </c>
     </row>
     <row r="10">
@@ -1606,13 +1582,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.119</v>
+        <v>0.0152</v>
       </c>
       <c r="E10">
-        <v>0.167</v>
+        <v>0.042</v>
       </c>
       <c r="F10">
-        <v>0.051</v>
+        <v>0.111</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1627,85 +1603,85 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1433.1</v>
+        <v>1136.1</v>
       </c>
       <c r="L10">
-        <v>0.6742096349266089</v>
+        <v>0.7056960059631032</v>
       </c>
       <c r="M10">
-        <v>1748.8</v>
+        <v>818.6</v>
       </c>
       <c r="N10">
-        <v>0.1772767820939097</v>
+        <v>0.09024562331878115</v>
       </c>
       <c r="O10">
-        <v>1.220291675389017</v>
+        <v>0.7205351641580847</v>
       </c>
       <c r="P10">
-        <v>748.8</v>
+        <v>818.6</v>
       </c>
       <c r="Q10">
-        <v>0.07590625253426324</v>
+        <v>0.09024562331878115</v>
       </c>
       <c r="R10">
-        <v>0.522503663387063</v>
+        <v>0.7205351641580847</v>
       </c>
       <c r="S10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.5718206770356816</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>4418</v>
+        <v>8841.700000000001</v>
       </c>
       <c r="V10">
-        <v>0.4478549995945179</v>
+        <v>0.9747431318075584</v>
       </c>
       <c r="W10">
-        <v>0.1716225764343796</v>
+        <v>0.1323647633139541</v>
       </c>
       <c r="X10">
-        <v>0.04914312867408668</v>
+        <v>0.04315031296798394</v>
       </c>
       <c r="Y10">
-        <v>0.1224794477602929</v>
+        <v>0.0892144503459702</v>
       </c>
       <c r="Z10">
-        <v>0.2580488515514981</v>
+        <v>0.1469208585821713</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.03503956806286016</v>
+        <v>0.02873381147413922</v>
       </c>
       <c r="AC10">
-        <v>-0.03503956806286016</v>
+        <v>-0.02873381147413922</v>
       </c>
       <c r="AD10">
-        <v>6792.5</v>
+        <v>7216.6</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>6792.5</v>
+        <v>7216.6</v>
       </c>
       <c r="AG10">
-        <v>2374.5</v>
+        <v>-1625.1</v>
       </c>
       <c r="AH10">
-        <v>0.4077791718946048</v>
+        <v>0.4430786988715203</v>
       </c>
       <c r="AI10">
-        <v>0.4215854218647203</v>
+        <v>0.3983770356058515</v>
       </c>
       <c r="AJ10">
-        <v>0.1940061931646418</v>
+        <v>-0.2182602038760628</v>
       </c>
       <c r="AK10">
-        <v>0.2030563204433118</v>
+        <v>-0.1752450583934522</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1722,7 +1698,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Commercial Bank of Dubai PSC (DFM:CBD)</t>
+          <t>Commercial Bank International P.S.C. (ADX:CBI)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1731,10 +1707,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.04190000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.0377</v>
+        <v>-0.00082</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1743,103 +1716,94 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002655797898979809</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.002655797898979809</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>376.3</v>
+        <v>-4.77</v>
       </c>
       <c r="L11">
-        <v>0.6106783511846803</v>
+        <v>-0.04437209302325581</v>
       </c>
       <c r="M11">
-        <v>158</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.05176424335746813</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.4198777571086899</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>158</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.05176424335746813</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.4198777571086899</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>1425.7</v>
+        <v>320.7</v>
       </c>
       <c r="V11">
-        <v>0.4670903908527995</v>
+        <v>0.9038895152198421</v>
       </c>
       <c r="W11">
-        <v>0.1551560631674432</v>
+        <v>-0.007069808803912849</v>
       </c>
       <c r="X11">
-        <v>0.04829156389208342</v>
+        <v>0.03808964474174076</v>
       </c>
       <c r="Y11">
-        <v>0.1068644992753598</v>
+        <v>-0.04515945354565361</v>
       </c>
       <c r="Z11">
-        <v>0.1951162369988661</v>
+        <v>0.407042786823173</v>
       </c>
       <c r="AA11">
-        <v>0.000518189292278435</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.03556517749687986</v>
+        <v>0.03181147388973721</v>
       </c>
       <c r="AC11">
-        <v>-0.03504698820460143</v>
+        <v>-0.03181147388973721</v>
       </c>
       <c r="AD11">
-        <v>1841.9</v>
+        <v>122.2</v>
       </c>
       <c r="AE11">
-        <v>7.117486673243209</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1849.017486673243</v>
+        <v>122.2</v>
       </c>
       <c r="AG11">
-        <v>423.3174866732434</v>
+        <v>-198.5</v>
       </c>
       <c r="AH11">
-        <v>0.3772490747030263</v>
+        <v>0.2561844863731656</v>
       </c>
       <c r="AI11">
-        <v>0.4064563054460535</v>
+        <v>0.1531328320802005</v>
       </c>
       <c r="AJ11">
-        <v>0.1217963392969432</v>
+        <v>-1.269993602047345</v>
       </c>
       <c r="AK11">
-        <v>0.1355302288212901</v>
+        <v>-0.4158809972763461</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>601.9281045751634</v>
-      </c>
-      <c r="AP11">
-        <v>138.3390479324325</v>
       </c>
     </row>
     <row r="12">
@@ -1850,7 +1814,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The National Bank of Ras Al-Khaimah (P.S.C.) (ADX:RAKBANK)</t>
+          <t>National Bank of Umm Al-Qaiwain (PSC) (ADX:NBQ)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1859,10 +1823,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.0162</v>
+        <v>-0.0325</v>
       </c>
       <c r="E12">
-        <v>-0.0455</v>
+        <v>-0.135</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1877,28 +1841,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>294.9</v>
+        <v>68.2</v>
       </c>
       <c r="L12">
-        <v>0.4110104529616724</v>
+        <v>0.6350093109869646</v>
       </c>
       <c r="M12">
-        <v>136.9</v>
+        <v>55.3</v>
       </c>
       <c r="N12">
-        <v>0.06315158224928499</v>
+        <v>0.0549537911159694</v>
       </c>
       <c r="O12">
-        <v>0.4642251610715497</v>
+        <v>0.8108504398826979</v>
       </c>
       <c r="P12">
-        <v>136.9</v>
+        <v>55.3</v>
       </c>
       <c r="Q12">
-        <v>0.06315158224928499</v>
+        <v>0.0549537911159694</v>
       </c>
       <c r="R12">
-        <v>0.4642251610715497</v>
+        <v>0.8108504398826979</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1907,55 +1871,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>409.7</v>
+        <v>974.9</v>
       </c>
       <c r="V12">
-        <v>0.1889934495802195</v>
+        <v>0.9687965815363212</v>
       </c>
       <c r="W12">
-        <v>0.1567949808592088</v>
+        <v>0.05355740537144652</v>
       </c>
       <c r="X12">
-        <v>0.05421705312856415</v>
+        <v>0.03536329895248289</v>
       </c>
       <c r="Y12">
-        <v>0.1025779277306447</v>
+        <v>0.01819410641896363</v>
       </c>
       <c r="Z12">
-        <v>0.205</v>
+        <v>0.3463398903579489</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.03512335297350005</v>
+        <v>0.03308547701748834</v>
       </c>
       <c r="AC12">
-        <v>-0.03512335297350005</v>
+        <v>-0.03308547701748834</v>
       </c>
       <c r="AD12">
-        <v>2561.9</v>
+        <v>102</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>2561.9</v>
+        <v>102</v>
       </c>
       <c r="AG12">
-        <v>2152.2</v>
+        <v>-872.9</v>
       </c>
       <c r="AH12">
-        <v>0.5416622618770746</v>
+        <v>0.09203284309302535</v>
       </c>
       <c r="AI12">
-        <v>0.5548480713837091</v>
+        <v>0.07554436379795586</v>
       </c>
       <c r="AJ12">
-        <v>0.4981944444444445</v>
+        <v>-6.543478260869566</v>
       </c>
       <c r="AK12">
-        <v>0.5115029945812339</v>
+        <v>-2.325872635225153</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1972,7 +1936,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>United Arab Bank P.J.S.C. (ADX:UAB)</t>
+          <t>Abu Dhabi Islamic Bank PJSC (ADX:ADIB)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1981,7 +1945,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.262</v>
+        <v>0.0115</v>
+      </c>
+      <c r="E13">
+        <v>0.00079</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1996,82 +1963,85 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-24.7</v>
+        <v>509.3</v>
       </c>
       <c r="L13">
-        <v>-0.4049180327868852</v>
+        <v>0.4137286758732738</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>352.6</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.07586874663797741</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.6923227959945023</v>
       </c>
       <c r="P13">
-        <v>-0</v>
+        <v>352.6</v>
       </c>
       <c r="Q13">
-        <v>-0</v>
+        <v>0.07586874663797741</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.6923227959945023</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
-        <v>162.5</v>
+        <v>2938.9</v>
       </c>
       <c r="V13">
-        <v>0.2896613190730838</v>
+        <v>0.632361484669177</v>
       </c>
       <c r="W13">
-        <v>-0.03482797518330513</v>
+        <v>0.1018192722910836</v>
       </c>
       <c r="X13">
-        <v>0.05051139169431014</v>
+        <v>0.03439697881770828</v>
       </c>
       <c r="Y13">
-        <v>-0.08533936687761527</v>
+        <v>0.06742229347337528</v>
       </c>
       <c r="Z13">
-        <v>0.05128205128205128</v>
+        <v>0.4819701656160683</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.03628409416024125</v>
+        <v>0.03404059012437499</v>
       </c>
       <c r="AC13">
-        <v>-0.03628409416024125</v>
+        <v>-0.03404059012437499</v>
       </c>
       <c r="AD13">
-        <v>460.9</v>
+        <v>70.7</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>460.9</v>
+        <v>70.7</v>
       </c>
       <c r="AG13">
-        <v>298.4</v>
+        <v>-2868.2</v>
       </c>
       <c r="AH13">
-        <v>0.4510226049515608</v>
+        <v>0.01498452799796533</v>
       </c>
       <c r="AI13">
-        <v>0.4008523221429814</v>
+        <v>0.01350396332728488</v>
       </c>
       <c r="AJ13">
-        <v>0.3472189899930184</v>
+        <v>-1.611982240206823</v>
       </c>
       <c r="AK13">
-        <v>0.3022384280360579</v>
+        <v>-1.248889662980058</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2088,7 +2058,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Abu Dhabi Islamic Bank PJSC (ADX:ADIB)</t>
+          <t>Ajman Bank PJSC (DFM:AJMANBANK)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2097,10 +2067,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.08539999999999999</v>
+        <v>-0.0361</v>
       </c>
       <c r="E14">
-        <v>0.0911</v>
+        <v>-0.231</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2115,447 +2085,87 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>707.3</v>
+        <v>8.19</v>
       </c>
       <c r="L14">
-        <v>0.4825351343975985</v>
+        <v>0.1047314578005115</v>
       </c>
       <c r="M14">
-        <v>1386.6</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.2601598559045367</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>1.960412837551251</v>
+        <v>-0</v>
       </c>
       <c r="P14">
-        <v>386.7</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.07255431723516829</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>0.5467269899618267</v>
+        <v>-0</v>
       </c>
       <c r="S14">
-        <v>999.8999999999999</v>
-      </c>
-      <c r="T14">
-        <v>0.7211163998269147</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>2518.2</v>
+        <v>266.5</v>
       </c>
       <c r="V14">
-        <v>0.4724755150287065</v>
+        <v>0.5975336322869955</v>
       </c>
       <c r="W14">
-        <v>0.1605784729947556</v>
+        <v>0.01182330012992637</v>
       </c>
       <c r="X14">
-        <v>0.04225333271937538</v>
+        <v>0.03429952885069591</v>
       </c>
       <c r="Y14">
-        <v>0.1183251402753802</v>
+        <v>-0.02247622872076953</v>
       </c>
       <c r="Z14">
-        <v>0.5440777996362421</v>
+        <v>2.3</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04174224860943856</v>
+        <v>0.03414598534366731</v>
       </c>
       <c r="AC14">
-        <v>-0.04174224860943856</v>
+        <v>-0.03414598534366731</v>
       </c>
       <c r="AD14">
-        <v>100.2</v>
+        <v>2.91</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>100.2</v>
+        <v>2.91</v>
       </c>
       <c r="AG14">
-        <v>-2418</v>
+        <v>-263.59</v>
       </c>
       <c r="AH14">
-        <v>0.01845303867403315</v>
+        <v>0.006482368403466173</v>
       </c>
       <c r="AI14">
-        <v>0.01962704693253937</v>
+        <v>0.00423205014470412</v>
       </c>
       <c r="AJ14">
-        <v>-0.8304141767978569</v>
+        <v>-1.445041390274656</v>
       </c>
       <c r="AK14">
-        <v>-0.9346733668341709</v>
+        <v>-0.6259409655434446</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Invest bank P.S.C. (ADX:INVESTB)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>-0</v>
-      </c>
-      <c r="H15">
-        <v>-0</v>
-      </c>
-      <c r="I15">
-        <v>-0</v>
-      </c>
-      <c r="J15">
-        <v>-0</v>
-      </c>
-      <c r="K15">
-        <v>-413.5</v>
-      </c>
-      <c r="L15">
-        <v>1.224459579508439</v>
-      </c>
-      <c r="M15">
-        <v>-0</v>
-      </c>
-      <c r="N15">
-        <v>-0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>-0</v>
-      </c>
-      <c r="Q15">
-        <v>-0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>413.9</v>
-      </c>
-      <c r="V15">
-        <v>0.5251871589899758</v>
-      </c>
-      <c r="W15">
-        <v>-0.7052703394166809</v>
-      </c>
-      <c r="X15">
-        <v>0.04205993810621741</v>
-      </c>
-      <c r="Y15">
-        <v>-0.7473302775228984</v>
-      </c>
-      <c r="Z15">
-        <v>15.90598652913185</v>
-      </c>
-      <c r="AA15">
-        <v>-0</v>
-      </c>
-      <c r="AB15">
-        <v>0.04205993810621741</v>
-      </c>
-      <c r="AC15">
-        <v>-0.04205993810621741</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>-413.9</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>-1.106092998396579</v>
-      </c>
-      <c r="AK15">
-        <v>-12.89408099688472</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Ajman Bank PJSC (DFM:AJMANBANK)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>0.128</v>
-      </c>
-      <c r="E16">
-        <v>0.308</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>43.7</v>
-      </c>
-      <c r="L16">
-        <v>0.3620546810273405</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>0.03761519653940192</v>
-      </c>
-      <c r="O16">
-        <v>0.4576659038901602</v>
-      </c>
-      <c r="P16">
-        <v>20</v>
-      </c>
-      <c r="Q16">
-        <v>0.03761519653940192</v>
-      </c>
-      <c r="R16">
-        <v>0.4576659038901602</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>658.7</v>
-      </c>
-      <c r="V16">
-        <v>1.238856498025202</v>
-      </c>
-      <c r="W16">
-        <v>0.08062730627306273</v>
-      </c>
-      <c r="X16">
-        <v>0.04205993810621741</v>
-      </c>
-      <c r="Y16">
-        <v>0.03856736816684533</v>
-      </c>
-      <c r="Z16">
-        <v>0.4665635871666023</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0.04205993810621741</v>
-      </c>
-      <c r="AC16">
-        <v>-0.04205993810621741</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>-658.7</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>5.186614173228347</v>
-      </c>
-      <c r="AK16">
-        <v>-19.37352941176471</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>National Bank Of Umm Al-Qaiwain (PSC) (ADX:NBQ)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>-0.0119</v>
-      </c>
-      <c r="E17">
-        <v>0.0221</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>115.2</v>
-      </c>
-      <c r="L17">
-        <v>0.7495120364346129</v>
-      </c>
-      <c r="M17">
-        <v>55.3</v>
-      </c>
-      <c r="N17">
-        <v>0.05785123966942149</v>
-      </c>
-      <c r="O17">
-        <v>0.4800347222222222</v>
-      </c>
-      <c r="P17">
-        <v>55.3</v>
-      </c>
-      <c r="Q17">
-        <v>0.05785123966942149</v>
-      </c>
-      <c r="R17">
-        <v>0.4800347222222222</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>963.3</v>
-      </c>
-      <c r="V17">
-        <v>1.007741395543467</v>
-      </c>
-      <c r="W17">
-        <v>0.09645817633760362</v>
-      </c>
-      <c r="X17">
-        <v>0.04205993810621741</v>
-      </c>
-      <c r="Y17">
-        <v>0.05439823823138621</v>
-      </c>
-      <c r="Z17">
-        <v>0.4141740770681758</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0.04205993810621741</v>
-      </c>
-      <c r="AC17">
-        <v>-0.04205993810621741</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>-963.3</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>130.1756756756761</v>
-      </c>
-      <c r="AK17">
-        <v>-3.106417284746855</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
         <v>0</v>
       </c>
     </row>
